--- a/biology/Zoologie/Grimpar_enfumé/Grimpar_enfumé.xlsx
+++ b/biology/Zoologie/Grimpar_enfumé/Grimpar_enfumé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grimpar_enfum%C3%A9</t>
+          <t>Grimpar_enfumé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrocincla fuliginosa
 Le Grimpar enfumé (Dendrocincla fuliginosa) est une espèce de passereaux de la famille des Furnariidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grimpar_enfum%C3%A9</t>
+          <t>Grimpar_enfumé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit du sud-est du Honduras jusqu'au nord de l'Amérique du Sud et à l'est du Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit du sud-est du Honduras jusqu'au nord de l'Amérique du Sud et à l'est du Brésil.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grimpar_enfum%C3%A9</t>
+          <t>Grimpar_enfumé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se situe dans les forêts sèches ou humides en dessous de 2 000 mètres d'altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se situe dans les forêts sèches ou humides en dessous de 2 000 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grimpar_enfum%C3%A9</t>
+          <t>Grimpar_enfumé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Grimpar enfumé est principalement insectivore, mais il se nourrit également d'invertébrés et de petits vertébrés[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Grimpar enfumé est principalement insectivore, mais il se nourrit également d'invertébrés et de petits vertébrés.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grimpar_enfum%C3%A9</t>
+          <t>Grimpar_enfumé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,8 +625,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sous-espèces
-D'après la classification de référence (version 3.5, 2013) du Congrès ornithologique international, cette espèce est constituée des onze sous-espèces suivantes (ordre phylogénique) :
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 3.5, 2013) du Congrès ornithologique international, cette espèce est constituée des onze sous-espèces suivantes (ordre phylogénique) :
 D. fuliginosa ridgwayi (Oberholser, 1904) vit au Honduras, en Colombie, en Équateur et au Pérou ;
 D. fuliginosa lafresnayei (Ridgway, 1888) vit en Colombie et au Venezuela ;
 D. fuliginosa meruloides (Lafresnaye, 1851) vit dans le nord vénézuélien et à Trinité ;
